--- a/docs/qcvs.xlsx
+++ b/docs/qcvs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="404">
   <si>
     <t>Path</t>
   </si>
@@ -1014,6 +1014,9 @@
     <t>Expansion is performed to produce a collection of codes that are ready to use for data entry or validation.</t>
   </si>
   <si>
+    <t>To ensure that the Questionnaire will not adopt a different version of the ValueSet without revising the Questionnaire.</t>
+  </si>
+  <si>
     <t>ValueSet.expansion.id</t>
   </si>
   <si>
@@ -1141,6 +1144,37 @@
   </si>
   <si>
     <t>ValueSet.expansion.contains.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>ordinal-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/valueset-ordinalValue]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Numeric values for answer choices are needed in order to enable calculation of scores in Assessments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>ValueSet.expansion.contains.modifierExtension</t>
@@ -1386,7 +1420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1396,7 +1430,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="62.4140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -8205,7 +8239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>316</v>
       </c>
@@ -8215,13 +8249,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8241,7 +8275,9 @@
       <c r="M62" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8318,7 +8354,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8427,7 +8463,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8538,7 +8574,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8649,7 +8685,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8675,13 +8711,13 @@
         <v>62</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8731,7 +8767,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>49</v>
@@ -8760,7 +8796,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8786,13 +8822,13 @@
         <v>149</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8842,7 +8878,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>49</v>
@@ -8871,7 +8907,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8894,16 +8930,16 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -8953,7 +8989,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8982,7 +9018,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9005,23 +9041,23 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>40</v>
@@ -9066,7 +9102,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9095,7 +9131,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9121,13 +9157,13 @@
         <v>205</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9177,7 +9213,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9206,7 +9242,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9315,7 +9351,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9426,7 +9462,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9537,7 +9573,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9563,13 +9599,13 @@
         <v>118</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9619,7 +9655,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>49</v>
@@ -9648,7 +9684,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9671,13 +9707,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9728,7 +9764,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9755,9 +9791,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9771,7 +9807,7 @@
         <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -9783,10 +9819,10 @@
         <v>205</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9837,7 +9873,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9849,7 +9885,7 @@
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
@@ -9866,7 +9902,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9975,11 +10011,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10001,14 +10037,12 @@
         <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>95</v>
+        <v>363</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10045,16 +10079,14 @@
         <v>40</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="AE78" t="s" s="2">
         <v>217</v>
@@ -10072,7 +10104,7 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>40</v>
@@ -10084,43 +10116,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="C79" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>94</v>
+        <v>368</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
       </c>
@@ -10168,7 +10202,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10177,13 +10211,13 @@
         <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>40</v>
@@ -10197,38 +10231,40 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10277,13 +10313,13 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>363</v>
+        <v>221</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -10292,7 +10328,7 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>40</v>
@@ -10306,7 +10342,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10329,20 +10365,18 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>370</v>
+        <v>40</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
@@ -10388,7 +10422,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10417,7 +10451,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10443,17 +10477,17 @@
         <v>141</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10499,7 +10533,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10528,7 +10562,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10551,20 +10585,20 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
@@ -10610,7 +10644,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10639,7 +10673,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10662,15 +10696,17 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -10719,7 +10755,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10728,7 +10764,7 @@
         <v>49</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>382</v>
+        <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>40</v>
@@ -10748,7 +10784,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10771,13 +10807,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10828,7 +10864,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10837,7 +10873,7 @@
         <v>49</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>40</v>
@@ -10857,7 +10893,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10868,7 +10904,7 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -10880,17 +10916,15 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -10939,16 +10973,16 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>40</v>
@@ -10968,7 +11002,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10994,13 +11028,13 @@
         <v>40</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11050,7 +11084,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11077,8 +11111,119 @@
         <v>40</v>
       </c>
     </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM87">
+  <autoFilter ref="A1:AM88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11088,7 +11233,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
